--- a/チェックリスト/仕様書/射撃フェーズの仕様書.xlsx
+++ b/チェックリスト/仕様書/射撃フェーズの仕様書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2B2BE-890D-427E-B994-E9F0D7843FB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFABB016-3402-46DA-8D40-78DC8A14C5B0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,14 +108,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>６０秒でゲームオーバー</t>
+    <t>あとでいじれるようにしておいてーね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30秒でゲームオーバー</t>
     <rPh sb="2" eb="3">
       <t>ビョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あとでいじれるようにしておいてーね</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -242,127 +242,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A75FEDB-89C4-45A9-AD6A-C9E1CABBC816}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="133350"/>
-          <a:ext cx="4152900" cy="2543175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7DA3CD-1F3F-4A08-8FFE-340C44C7332C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="981075" y="133350"/>
-          <a:ext cx="2790825" cy="2552700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -423,16 +302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -447,8 +326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="581025"/>
-          <a:ext cx="771525" cy="371475"/>
+          <a:off x="12458701" y="123825"/>
+          <a:ext cx="323850" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,7 +363,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スコープ</a:t>
+            <a:t>頭</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -494,15 +373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -517,7 +396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="1695450"/>
+          <a:off x="11820525" y="2228850"/>
           <a:ext cx="771525" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1330,14 +1209,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1354,7 +1233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10906125" y="390525"/>
+          <a:off x="11106150" y="390525"/>
           <a:ext cx="438150" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1710,6 +1589,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD4A4C2-3838-4E5F-A412-F9FC5ABD0D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11544300" y="309563"/>
+          <a:ext cx="914401" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1980,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A18:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2015,7 +1947,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="s">
         <v>7</v>
@@ -2023,7 +1955,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
